--- a/public/AdvisorData/template_advisor.xlsx
+++ b/public/AdvisorData/template_advisor.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fani Salamah\Downloads\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fani Salamah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84ABBF0-D626-42BC-AA07-A935A72B4113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62102819-2154-4670-80C1-1C618651658C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{96036A82-6580-4EC2-B9D0-D8D4F9CDF66A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -55,41 +55,26 @@
     <t>budi@gmail.com</t>
   </si>
   <si>
-    <t>Contoh :</t>
-  </si>
-  <si>
-    <t>Isilah Departement_ID dengan nomor sesuai urutan jurusan</t>
-  </si>
-  <si>
-    <t>Departement_Name</t>
-  </si>
-  <si>
     <t>Multimedia</t>
   </si>
   <si>
     <t>SIJA</t>
   </si>
   <si>
-    <t>TKJ</t>
-  </si>
-  <si>
-    <t>Broadcasting</t>
-  </si>
-  <si>
-    <t>NB: Baris dengan warna kuning tidak perlu dihapus</t>
-  </si>
-  <si>
-    <t>Silahkan hapus baris 2 hingga baris 14 untuk melengkapi data user berikutnya</t>
-  </si>
-  <si>
     <t>NIP</t>
+  </si>
+  <si>
+    <t>Andre</t>
+  </si>
+  <si>
+    <t>andrea@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,29 +86,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -151,43 +113,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -503,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B980FF47-4F2C-4880-B01D-0615A1D8778E}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -535,92 +469,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>125729281</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
+      </c>
+      <c r="E2">
+        <v>123123123</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>125729281</v>
+        <v>12324</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
       <c r="E3">
         <v>123123123</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>3</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>4</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{E014AD44-906D-4010-BB9C-408349006CA9}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E014AD44-906D-4010-BB9C-408349006CA9}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{BD84F5E2-5F78-45BC-8CBF-8BC3FDBF8884}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/public/AdvisorData/template_advisor.xlsx
+++ b/public/AdvisorData/template_advisor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fani Salamah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62102819-2154-4670-80C1-1C618651658C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC7291D-FB43-497E-AA79-6A96B4A5B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{96036A82-6580-4EC2-B9D0-D8D4F9CDF66A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -49,25 +49,31 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Budi</t>
-  </si>
-  <si>
-    <t>budi@gmail.com</t>
+    <t>SIJA</t>
+  </si>
+  <si>
+    <t>NIP</t>
+  </si>
+  <si>
+    <t>YOI</t>
+  </si>
+  <si>
+    <t>YOI@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>fani salamah</t>
+  </si>
+  <si>
+    <t>ffff@gmail.com</t>
+  </si>
+  <si>
+    <t>an</t>
+  </si>
+  <si>
+    <t>an@gmail.com</t>
   </si>
   <si>
     <t>Multimedia</t>
-  </si>
-  <si>
-    <t>SIJA</t>
-  </si>
-  <si>
-    <t>NIP</t>
-  </si>
-  <si>
-    <t>Andre</t>
-  </si>
-  <si>
-    <t>andrea@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -437,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B980FF47-4F2C-4880-B01D-0615A1D8778E}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -471,16 +477,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>12324</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2">
-        <v>125729281</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
       <c r="E2">
         <v>123123123</v>
@@ -488,27 +494,50 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>23929</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>12324</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>23123123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>123123123</v>
+      <c r="B4">
+        <v>4343</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>33333</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{B71D4D51-3C1F-48F1-ABE1-BE208DC7FD4D}">
+      <formula1>"SIJA, Multimedia"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{E014AD44-906D-4010-BB9C-408349006CA9}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{BD84F5E2-5F78-45BC-8CBF-8BC3FDBF8884}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{BD84F5E2-5F78-45BC-8CBF-8BC3FDBF8884}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{50CC7B22-7B5A-4DE4-9051-70D2802D693D}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{2A15D67A-26E7-4504-A5AD-4D3DD949F704}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/public/AdvisorData/template_advisor.xlsx
+++ b/public/AdvisorData/template_advisor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fani Salamah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC7291D-FB43-497E-AA79-6A96B4A5B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5CB0B3-5D64-419D-B5E8-0E266A9E4B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{96036A82-6580-4EC2-B9D0-D8D4F9CDF66A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -43,37 +43,22 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Departement_ID</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>SIJA</t>
+    <t>budi@gmail.com</t>
   </si>
   <si>
     <t>NIP</t>
   </si>
   <si>
-    <t>YOI</t>
-  </si>
-  <si>
-    <t>YOI@GMAIL.COM</t>
-  </si>
-  <si>
-    <t>fani salamah</t>
-  </si>
-  <si>
-    <t>ffff@gmail.com</t>
-  </si>
-  <si>
-    <t>an</t>
-  </si>
-  <si>
-    <t>an@gmail.com</t>
-  </si>
-  <si>
-    <t>Multimedia</t>
+    <t>Jurusan</t>
+  </si>
+  <si>
+    <t>TKJ &amp; Telekomunikasi</t>
+  </si>
+  <si>
+    <t>Budi (Contoh)</t>
   </si>
 </sst>
 </file>
@@ -443,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B980FF47-4F2C-4880-B01D-0615A1D8778E}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,81 +448,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>125729281</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2">
-        <v>12324</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
       </c>
       <c r="E2">
         <v>123123123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>23929</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>23123123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>4343</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>33333</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{B71D4D51-3C1F-48F1-ABE1-BE208DC7FD4D}">
-      <formula1>"SIJA, Multimedia"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{E7784AC8-AE3F-4FDC-BF4E-B084A28AF623}">
+      <formula1>"Broadcasting &amp; Perfilman, TKJ &amp; Telekomunikasi, Desain Pemodelan &amp; Informasi Bangunan, Teknik Konstruksi &amp; Perumahan, Teknik Ketenagalistrikan, Teknik Otomotif, Teknik Mesin"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{BD84F5E2-5F78-45BC-8CBF-8BC3FDBF8884}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{50CC7B22-7B5A-4DE4-9051-70D2802D693D}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{2A15D67A-26E7-4504-A5AD-4D3DD949F704}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E014AD44-906D-4010-BB9C-408349006CA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>